--- a/scimagojr/scimagojr_2016.xlsx
+++ b/scimagojr/scimagojr_2016.xlsx
@@ -113,15 +113,15 @@
     <t>Middle East</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -149,15 +149,15 @@
     <t>Norway</t>
   </si>
   <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -296,12 +296,12 @@
     <t>Ethiopia</t>
   </si>
   <si>
+    <t>Latvia</t>
+  </si>
+  <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -344,12 +344,12 @@
     <t>Armenia</t>
   </si>
   <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -359,33 +359,33 @@
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
-    <t>Zimbabwe</t>
+    <t>Malta</t>
   </si>
   <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
     <t>Botswana</t>
   </si>
   <si>
+    <t>Moldova</t>
+  </si>
+  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>Palestine</t>
   </si>
   <si>
@@ -410,33 +410,33 @@
     <t>Congo</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Albania</t>
+    <t>Cambodia</t>
   </si>
   <si>
     <t>Côte d’Ivoire</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -452,12 +452,12 @@
     <t>Namibia</t>
   </si>
   <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -491,12 +491,12 @@
     <t>Niger</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
@@ -509,18 +509,18 @@
     <t>French Polynesia</t>
   </si>
   <si>
+    <t>Barbados</t>
+  </si>
+  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Barbados</t>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Grenada</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
@@ -539,16 +539,16 @@
     <t>Angola</t>
   </si>
   <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Honduras</t>
@@ -578,13 +578,16 @@
     <t>Suriname</t>
   </si>
   <si>
+    <t>Reunion</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Mauritania</t>
   </si>
   <si>
-    <t>Reunion</t>
+    <t>Lesotho</t>
   </si>
   <si>
     <t>Burundi</t>
@@ -593,33 +596,30 @@
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
+    <t>Cape Verde</t>
   </si>
   <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
@@ -653,109 +653,109 @@
     <t>Aruba</t>
   </si>
   <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
     <t>Comoros</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Republic of South Sudan</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
+    <t>Virgin Islands (British)</t>
   </si>
   <si>
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
-    <t>Virgin Islands (British)</t>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
   </si>
   <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
     <t>American Samoa</t>
   </si>
   <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
     <t>Mayotte</t>
   </si>
   <si>
     <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
     <t>Tuvalu</t>
   </si>
   <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
     <t>Vatican City State</t>
   </si>
   <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Nauru</t>
+    <t>Heard Island and McDonald Islands</t>
   </si>
   <si>
     <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
     <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
   </si>
   <si>
     <t>Niue</t>
@@ -905,22 +905,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>695642</v>
+        <v>706511</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>581919</v>
+        <v>586412</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>12848299</v>
+        <v>18357410</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>5363540</v>
+        <v>7099535</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>18.47</v>
+        <v>25.98</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -934,22 +934,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>501174</v>
+        <v>502078</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>488371</v>
+        <v>491019</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7448114</v>
+        <v>10286824</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4590557</v>
+        <v>6230820</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.86</v>
+        <v>20.49</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -963,22 +963,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>216949</v>
+        <v>222959</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>172763</v>
+        <v>173853</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>4214996</v>
+        <v>5939169</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>953819</v>
+        <v>1222099</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>19.43</v>
+        <v>26.64</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -992,22 +992,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>185945</v>
+        <v>187947</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>164145</v>
+        <v>165699</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3381699</v>
+        <v>4654098</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>831433</v>
+        <v>1038461</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>18.19</v>
+        <v>24.76</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1021,22 +1021,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>156756</v>
+        <v>157908</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>143693</v>
+        <v>144660</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1616716</v>
+        <v>2290136</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>560591</v>
+        <v>802342</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>10.31</v>
+        <v>14.5</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1050,22 +1050,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>133024</v>
+        <v>133807</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>121863</v>
+        <v>122887</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1721924</v>
+        <v>2346994</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>423753</v>
+        <v>531427</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>12.94</v>
+        <v>17.54</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>126075</v>
+        <v>126909</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>113130</v>
+        <v>113905</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2248540</v>
+        <v>3080263</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>440344</v>
+        <v>547142</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>17.83</v>
+        <v>24.27</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1108,22 +1108,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>117612</v>
+        <v>118128</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>102468</v>
+        <v>102884</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2158262</v>
+        <v>2929883</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>548749</v>
+        <v>680999</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>18.35</v>
+        <v>24.8</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1137,22 +1137,22 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>110914</v>
+        <v>112174</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>95199</v>
+        <v>95691</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2188820</v>
+        <v>3075228</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>373924</v>
+        <v>479348</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>19.73</v>
+        <v>27.41</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1166,22 +1166,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>103463</v>
+        <v>104676</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>87291</v>
+        <v>87566</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2167636</v>
+        <v>3063686</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>419008</v>
+        <v>532571</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>20.95</v>
+        <v>29.27</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1195,22 +1195,22 @@
         <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>94367</v>
+        <v>94517</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>84743</v>
+        <v>85056</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1704511</v>
+        <v>2318009</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>345277</v>
+        <v>432845</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>18.06</v>
+        <v>24.52</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1224,22 +1224,22 @@
         <v>25</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>84069</v>
+        <v>84541</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>80946</v>
+        <v>81577</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>645011</v>
+        <v>813395</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>264527</v>
+        <v>318837</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>7.67</v>
+        <v>9.62</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1253,22 +1253,22 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>83958</v>
+        <v>83869</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>80231</v>
+        <v>80598</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1279724</v>
+        <v>1758550</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>241971</v>
+        <v>297983</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>15.24</v>
+        <v>20.97</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1282,22 +1282,22 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>76036</v>
+        <v>76038</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>70474</v>
+        <v>70675</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>958382</v>
+        <v>1317481</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>278406</v>
+        <v>364092</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>12.6</v>
+        <v>17.33</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1311,22 +1311,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>62095</v>
+        <v>62705</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>54104</v>
+        <v>54333</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1561366</v>
+        <v>2165833</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>234563</v>
+        <v>291475</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>25.14</v>
+        <v>34.54</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1340,22 +1340,22 @@
         <v>31</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>53314</v>
+        <v>53047</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>51400</v>
+        <v>51526</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>726133</v>
+        <v>984955</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>239736</v>
+        <v>297380</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>13.62</v>
+        <v>18.57</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1366,25 +1366,25 @@
         <v>32</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>48086</v>
+        <v>48366</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>44846</v>
+        <v>42549</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>614939</v>
+        <v>1666764</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>144302</v>
+        <v>200211</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>12.79</v>
+        <v>34.46</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>660</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1398,22 +1398,22 @@
         <v>31</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>48077</v>
+        <v>48187</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>43731</v>
+        <v>43813</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>525597</v>
+        <v>710625</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>97661</v>
+        <v>130063</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>10.93</v>
+        <v>14.75</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1424,25 +1424,25 @@
         <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>48029</v>
+        <v>48186</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>42287</v>
+        <v>44977</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1232022</v>
+        <v>792785</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>165341</v>
+        <v>174002</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>25.65</v>
+        <v>16.45</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1142</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1456,22 +1456,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>43189</v>
+        <v>43407</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>38037</v>
+        <v>38168</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1009678</v>
+        <v>1368641</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>138563</v>
+        <v>170202</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>23.38</v>
+        <v>31.53</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1485,22 +1485,22 @@
         <v>12</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>38440</v>
+        <v>38482</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>36130</v>
+        <v>36387</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>544024</v>
+        <v>720650</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>81705</v>
+        <v>99440</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>14.15</v>
+        <v>18.73</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1514,22 +1514,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>35191</v>
+        <v>35355</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>31029</v>
+        <v>31151</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>822279</v>
+        <v>1118798</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>96571</v>
+        <v>116426</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>23.37</v>
+        <v>31.64</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1543,22 +1543,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>30816</v>
+        <v>30925</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>29353</v>
+        <v>29545</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>382533</v>
+        <v>530564</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>81752</v>
+        <v>104605</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>12.41</v>
+        <v>17.16</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1572,22 +1572,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>29095</v>
+        <v>29398</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>25135</v>
+        <v>25338</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>740113</v>
+        <v>998731</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>94801</v>
+        <v>116932</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>25.44</v>
+        <v>33.97</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1601,22 +1601,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>26649</v>
+        <v>26903</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>23603</v>
+        <v>23782</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>569049</v>
+        <v>759224</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>69123</v>
+        <v>83900</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>21.35</v>
+        <v>28.22</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1630,22 +1630,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>25716</v>
+        <v>25804</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>22566</v>
+        <v>22693</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>453680</v>
+        <v>597882</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>70269</v>
+        <v>88538</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>17.64</v>
+        <v>23.17</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1659,22 +1659,22 @@
         <v>25</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>25039</v>
+        <v>25139</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>23665</v>
+        <v>23775</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>332442</v>
+        <v>430737</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>61276</v>
+        <v>72719</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>13.28</v>
+        <v>17.13</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1688,22 +1688,22 @@
         <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>23619</v>
+        <v>23851</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>20016</v>
+        <v>20065</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>501956</v>
+        <v>664009</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>66454</v>
+        <v>82332</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>21.25</v>
+        <v>27.84</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1714,25 +1714,25 @@
         <v>44</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>23535</v>
+        <v>23763</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>21396</v>
+        <v>20895</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>293012</v>
+        <v>499149</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>54042</v>
+        <v>92142</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>12.45</v>
+        <v>21.01</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>536</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1740,28 +1740,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>23408</v>
+        <v>23608</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>20694</v>
+        <v>21516</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>371468</v>
+        <v>382767</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>71902</v>
+        <v>69517</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>15.87</v>
+        <v>16.21</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>567</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1775,22 +1775,22 @@
         <v>12</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>22249</v>
+        <v>22638</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>19837</v>
+        <v>20035</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>579239</v>
+        <v>785305</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>58489</v>
+        <v>68863</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>26.03</v>
+        <v>34.69</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1804,22 +1804,22 @@
         <v>31</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>21878</v>
+        <v>22087</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>19192</v>
+        <v>19348</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>466049</v>
+        <v>612498</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>55115</v>
+        <v>68745</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>21.3</v>
+        <v>27.73</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1833,22 +1833,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>21738</v>
+        <v>21972</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>19329</v>
+        <v>19417</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>490483</v>
+        <v>642349</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>61204</v>
+        <v>75227</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>22.56</v>
+        <v>29.23</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1862,22 +1862,22 @@
         <v>31</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>21482</v>
+        <v>21419</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>20307</v>
+        <v>20382</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>456572</v>
+        <v>643472</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>69708</v>
+        <v>88205</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>21.25</v>
+        <v>30.04</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1891,22 +1891,22 @@
         <v>12</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>20639</v>
+        <v>20793</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>18579</v>
+        <v>18734</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>495638</v>
+        <v>679599</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>54781</v>
+        <v>67026</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>24.01</v>
+        <v>32.68</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1920,22 +1920,22 @@
         <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>19957</v>
+        <v>20094</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>17393</v>
+        <v>17475</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>370098</v>
+        <v>475894</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>49374</v>
+        <v>60668</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>18.54</v>
+        <v>23.68</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1949,22 +1949,22 @@
         <v>54</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>19605</v>
+        <v>19657</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>18708</v>
+        <v>18849</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>279797</v>
+        <v>370529</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>57047</v>
+        <v>76144</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>14.27</v>
+        <v>18.85</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1978,22 +1978,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>16658</v>
+        <v>16862</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>13886</v>
+        <v>13942</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>305140</v>
+        <v>408784</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>39148</v>
+        <v>48741</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>18.32</v>
+        <v>24.24</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2007,22 +2007,22 @@
         <v>25</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>15657</v>
+        <v>15796</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>14580</v>
+        <v>14617</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>179850</v>
+        <v>224341</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>32524</v>
+        <v>38590</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>11.49</v>
+        <v>14.2</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2036,22 +2036,22 @@
         <v>14</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>15112</v>
+        <v>15400</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>12570</v>
+        <v>12688</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>344098</v>
+        <v>454692</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>34287</v>
+        <v>41354</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>22.77</v>
+        <v>29.53</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2065,22 +2065,22 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>15082</v>
+        <v>15123</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>14048</v>
+        <v>14096</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>191936</v>
+        <v>261341</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>31078</v>
+        <v>40270</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>12.73</v>
+        <v>17.28</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2094,22 +2094,22 @@
         <v>12</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>14977</v>
+        <v>14929</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>14175</v>
+        <v>14205</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>233616</v>
+        <v>312431</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>54697</v>
+        <v>70950</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>15.6</v>
+        <v>20.93</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2123,22 +2123,22 @@
         <v>28</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>14258</v>
+        <v>14249</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>12852</v>
+        <v>12894</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>208245</v>
+        <v>270570</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>33841</v>
+        <v>43835</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>14.61</v>
+        <v>18.99</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2152,22 +2152,22 @@
         <v>28</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>13628</v>
+        <v>13648</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>12524</v>
+        <v>12621</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>237935</v>
+        <v>302709</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>41283</v>
+        <v>52327</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>17.46</v>
+        <v>22.18</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2181,22 +2181,22 @@
         <v>12</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>12706</v>
+        <v>12847</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>12193</v>
+        <v>12348</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>104736</v>
+        <v>131040</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>33112</v>
+        <v>42857</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>8.24</v>
+        <v>10.2</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2210,22 +2210,22 @@
         <v>25</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>11449</v>
+        <v>11520</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>10441</v>
+        <v>10504</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>213178</v>
+        <v>266113</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>27409</v>
+        <v>33018</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>18.62</v>
+        <v>23.1</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2239,22 +2239,22 @@
         <v>25</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>11404</v>
+        <v>11507</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>11000</v>
+        <v>11139</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>109613</v>
+        <v>115945</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>29942</v>
+        <v>37270</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>9.61</v>
+        <v>10.08</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2268,22 +2268,22 @@
         <v>28</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>10783</v>
+        <v>10932</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>10042</v>
+        <v>10208</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>137319</v>
+        <v>171673</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>21348</v>
+        <v>26807</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>12.73</v>
+        <v>15.7</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2297,22 +2297,22 @@
         <v>25</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>8677</v>
+        <v>8665</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>8192</v>
+        <v>8211</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>116469</v>
+        <v>120950</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>18619</v>
+        <v>21964</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>13.42</v>
+        <v>13.96</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2323,25 +2323,25 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>8296</v>
+        <v>8295</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>7860</v>
+        <v>7892</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>94918</v>
+        <v>119247</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>15004</v>
+        <v>18838</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>11.44</v>
+        <v>14.38</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2355,22 +2355,22 @@
         <v>25</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>8000</v>
+        <v>7986</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>7357</v>
+        <v>7367</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>123342</v>
+        <v>135946</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>16709</v>
+        <v>20286</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>15.42</v>
+        <v>17.02</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2381,25 +2381,25 @@
         <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>7289</v>
+        <v>7319</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>6583</v>
+        <v>6643</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>94002</v>
+        <v>118765</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>15906</v>
+        <v>21732</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>12.9</v>
+        <v>16.23</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2413,22 +2413,22 @@
         <v>25</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>6927</v>
+        <v>6963</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>6363</v>
+        <v>6401</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>84951</v>
+        <v>114276</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>12284</v>
+        <v>15456</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>12.26</v>
+        <v>16.41</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2439,25 +2439,25 @@
         <v>71</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>6849</v>
+        <v>6813</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>6631</v>
+        <v>6623</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>81003</v>
+        <v>93155</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>14933</v>
+        <v>19346</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>11.83</v>
+        <v>13.67</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2471,22 +2471,22 @@
         <v>25</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>6550</v>
+        <v>6604</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>6017</v>
+        <v>6049</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>122321</v>
+        <v>148570</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>13417</v>
+        <v>16246</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>18.67</v>
+        <v>22.5</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2497,25 +2497,25 @@
         <v>73</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>6280</v>
+        <v>6291</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>5873</v>
+        <v>5904</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>79680</v>
+        <v>89292</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>14432</v>
+        <v>19103</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>12.69</v>
+        <v>14.19</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2529,22 +2529,22 @@
         <v>12</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>5877</v>
+        <v>5865</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>5586</v>
+        <v>5612</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>98806</v>
+        <v>117947</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>14491</v>
+        <v>17803</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>16.81</v>
+        <v>20.11</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2558,22 +2558,22 @@
         <v>31</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>5745</v>
+        <v>5799</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>5159</v>
+        <v>5197</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>92335</v>
+        <v>107438</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>9269</v>
+        <v>11301</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>16.07</v>
+        <v>18.53</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2587,22 +2587,22 @@
         <v>25</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>4631</v>
+        <v>4670</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>4225</v>
+        <v>4269</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>66592</v>
+        <v>75407</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>8479</v>
+        <v>10183</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>14.38</v>
+        <v>16.15</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2616,22 +2616,22 @@
         <v>12</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>4493</v>
+        <v>4515</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>4219</v>
+        <v>4250</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>74270</v>
+        <v>88096</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>11488</v>
+        <v>15261</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>16.53</v>
+        <v>19.51</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2645,22 +2645,22 @@
         <v>31</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>3580</v>
+        <v>3606</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>105257</v>
+        <v>131116</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>8504</v>
+        <v>9922</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>26.48</v>
+        <v>32.98</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2674,22 +2674,22 @@
         <v>25</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>3648</v>
+        <v>3691</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>3416</v>
+        <v>3451</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>67354</v>
+        <v>76117</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>7548</v>
+        <v>8793</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>18.46</v>
+        <v>20.62</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2703,22 +2703,22 @@
         <v>12</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>3410</v>
+        <v>3418</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>28886</v>
+        <v>24095</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>4771</v>
+        <v>6323</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>8.11</v>
+        <v>6.76</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2732,22 +2732,22 @@
         <v>25</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>3281</v>
+        <v>3274</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2945</v>
+        <v>2955</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>93327</v>
+        <v>94409</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>8206</v>
+        <v>9643</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>28.44</v>
+        <v>28.84</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2761,22 +2761,22 @@
         <v>31</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>3114</v>
+        <v>3129</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>46387</v>
+        <v>53956</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>9815</v>
+        <v>12482</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>14.36</v>
+        <v>16.68</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2790,22 +2790,22 @@
         <v>12</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>3190</v>
+        <v>3221</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>2885</v>
+        <v>2919</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>56848</v>
+        <v>61573</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>4890</v>
+        <v>6380</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>17.82</v>
+        <v>19.12</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2819,22 +2819,22 @@
         <v>31</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>3109</v>
+        <v>3090</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>48468</v>
+        <v>50598</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>5507</v>
+        <v>7113</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>15.59</v>
+        <v>16.37</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2848,22 +2848,22 @@
         <v>31</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>3015</v>
+        <v>3021</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>2658</v>
+        <v>2664</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>75624</v>
+        <v>76948</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>4675</v>
+        <v>5626</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>25.08</v>
+        <v>25.47</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2874,25 +2874,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>2965</v>
+        <v>2944</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>2580</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>70350</v>
+        <v>82219</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>7813</v>
+        <v>10106</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>23.73</v>
+        <v>27.93</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2906,22 +2906,22 @@
         <v>14</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>2552</v>
+        <v>2584</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>2184</v>
+        <v>2192</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>58442</v>
+        <v>63777</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>4758</v>
+        <v>5734</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>22.9</v>
+        <v>24.68</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2935,22 +2935,22 @@
         <v>28</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>2528</v>
+        <v>2543</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>2385</v>
+        <v>2404</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>33916</v>
+        <v>44784</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>5332</v>
+        <v>6649</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>13.42</v>
+        <v>17.61</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2964,22 +2964,22 @@
         <v>28</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>2191</v>
+        <v>2202</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>54833</v>
+        <v>57543</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>5151</v>
+        <v>6697</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>21.75</v>
+        <v>22.83</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2993,22 +2993,22 @@
         <v>12</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>2317</v>
+        <v>2305</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>2137</v>
+        <v>2147</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>45869</v>
+        <v>58776</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3978</v>
+        <v>4530</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>19.8</v>
+        <v>25.5</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3019,25 +3019,25 @@
         <v>91</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>2282</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>47001</v>
+        <v>48866</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>5955</v>
+        <v>8391</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>20.6</v>
+        <v>21.41</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3048,25 +3048,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2260</v>
+        <v>2249</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>2087</v>
+        <v>2096</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>47450</v>
+        <v>52969</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>9093</v>
+        <v>13187</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>21</v>
+        <v>23.55</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3077,25 +3077,25 @@
         <v>93</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>2133</v>
+        <v>2140</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1857</v>
+        <v>2012</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>73250</v>
+        <v>33689</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>3917</v>
+        <v>4612</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>34.34</v>
+        <v>15.74</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3106,25 +3106,25 @@
         <v>94</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>2121</v>
+        <v>2138</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>2003</v>
+        <v>1869</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>39861</v>
+        <v>66360</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>3907</v>
+        <v>4541</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>18.79</v>
+        <v>31.04</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>202</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3138,22 +3138,22 @@
         <v>28</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>1918</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>18488</v>
+        <v>23673</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>2292</v>
+        <v>2955</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>8.88</v>
+        <v>11.35</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3167,22 +3167,22 @@
         <v>12</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>1973</v>
+        <v>1998</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1804</v>
+        <v>1821</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>36711</v>
+        <v>35500</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>3366</v>
+        <v>4211</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>18.61</v>
+        <v>17.77</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3196,22 +3196,22 @@
         <v>25</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1870</v>
+        <v>1885</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>35362</v>
+        <v>33589</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>5835</v>
+        <v>6384</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>18.13</v>
+        <v>17.23</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3225,22 +3225,22 @@
         <v>31</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1857</v>
+        <v>1870</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>26463</v>
+        <v>31400</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>2465</v>
+        <v>3173</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>14.25</v>
+        <v>16.79</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3254,22 +3254,22 @@
         <v>14</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1819</v>
+        <v>1855</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1562</v>
+        <v>1569</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>67587</v>
+        <v>63694</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>4244</v>
+        <v>5095</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>37.16</v>
+        <v>34.34</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3283,22 +3283,22 @@
         <v>28</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1666</v>
+        <v>1675</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>23173</v>
+        <v>24644</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1436</v>
+        <v>1688</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>13.91</v>
+        <v>14.71</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3312,22 +3312,22 @@
         <v>31</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>22327</v>
+        <v>28913</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1600</v>
+        <v>2005</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>13.57</v>
+        <v>17.62</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3341,22 +3341,22 @@
         <v>25</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>44338</v>
+        <v>39953</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>4161</v>
+        <v>4750</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>27.07</v>
+        <v>24.42</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3370,22 +3370,22 @@
         <v>28</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1492</v>
+        <v>1499</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>29252</v>
+        <v>26554</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2795</v>
+        <v>3536</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>17.89</v>
+        <v>16.32</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3396,25 +3396,25 @@
         <v>104</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1428</v>
+        <v>1438</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>43127</v>
+        <v>47014</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>5018</v>
+        <v>6547</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>26.59</v>
+        <v>29.02</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3425,25 +3425,25 @@
         <v>105</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>39403</v>
+        <v>38462</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3721</v>
+        <v>4694</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>25.5</v>
+        <v>24.99</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3454,25 +3454,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>35457</v>
+        <v>30563</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>3555</v>
+        <v>4529</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>24.86</v>
+        <v>21.58</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3486,22 +3486,22 @@
         <v>12</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1384</v>
+        <v>1401</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1185</v>
+        <v>1196</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>23011</v>
+        <v>29550</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>3345</v>
+        <v>4420</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>16.63</v>
+        <v>21.09</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3515,22 +3515,22 @@
         <v>25</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1159</v>
+        <v>1189</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>29056</v>
+        <v>24775</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>4596</v>
+        <v>5074</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>25.07</v>
+        <v>20.84</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3544,22 +3544,22 @@
         <v>25</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>23554</v>
+        <v>23086</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>2917</v>
+        <v>1429</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>21.89</v>
+        <v>21.16</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3576,19 +3576,19 @@
         <v>1074</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>991</v>
+        <v>1023</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>20410</v>
+        <v>19067</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1146</v>
+        <v>3604</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3602,22 +3602,22 @@
         <v>28</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>29245</v>
+        <v>19871</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1750</v>
+        <v>2143</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>28.28</v>
+        <v>19.2</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3631,22 +3631,22 @@
         <v>25</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>21199</v>
+        <v>17169</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>953</v>
+        <v>1126</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>22.58</v>
+        <v>18.34</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3660,22 +3660,22 @@
         <v>28</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>21548</v>
+        <v>25429</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>715</v>
+        <v>895</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>24.43</v>
+        <v>28.77</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3686,25 +3686,25 @@
         <v>114</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>823</v>
+        <v>715</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>10458</v>
+        <v>16233</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>796</v>
+        <v>2003</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>12.03</v>
+        <v>18.79</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>119</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3715,25 +3715,25 @@
         <v>115</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>708</v>
+        <v>822</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>15356</v>
+        <v>15464</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1465</v>
+        <v>1055</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>17.88</v>
+        <v>17.96</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3744,25 +3744,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>727</v>
+        <v>679</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>11174</v>
+        <v>22295</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1053</v>
+        <v>1309</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>13.63</v>
+        <v>27.12</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>146</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3773,25 +3773,25 @@
         <v>117</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>812</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>671</v>
+        <v>726</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>28271</v>
+        <v>15089</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1073</v>
+        <v>1314</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>34.82</v>
+        <v>18.58</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3802,25 +3802,25 @@
         <v>118</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>22562</v>
+        <v>19194</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1789</v>
+        <v>2198</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>32.75</v>
+        <v>28.39</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3831,25 +3831,25 @@
         <v>119</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>6427</v>
+        <v>9323</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>832</v>
+        <v>1127</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>9.93</v>
+        <v>14.48</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3860,25 +3860,25 @@
         <v>120</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>4000</v>
+        <v>13241</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1010</v>
+        <v>1138</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>6.35</v>
+        <v>20.79</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3889,25 +3889,25 @@
         <v>121</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>21951</v>
+        <v>5703</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1188</v>
+        <v>1644</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>34.95</v>
+        <v>9.07</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3918,25 +3918,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>18957</v>
+        <v>12767</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>944</v>
+        <v>1387</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>30.63</v>
+        <v>20.9</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3950,22 +3950,22 @@
         <v>31</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>570</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>25181</v>
+        <v>16374</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1328</v>
+        <v>1581</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>41.15</v>
+        <v>27.02</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3976,25 +3976,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>9027</v>
+        <v>12745</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>1047</v>
+        <v>1366</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>15.86</v>
+        <v>22.05</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4008,22 +4008,22 @@
         <v>12</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>10856</v>
+        <v>15182</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>977</v>
+        <v>1251</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>19.11</v>
+        <v>26.45</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4037,22 +4037,22 @@
         <v>31</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>20519</v>
+        <v>16196</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>36.25</v>
+        <v>29.29</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4066,22 +4066,22 @@
         <v>28</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>32084</v>
+        <v>26874</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>1460</v>
+        <v>1743</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>57.6</v>
+        <v>48.95</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4095,22 +4095,22 @@
         <v>31</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>4117</v>
+        <v>5903</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>431</v>
+        <v>574</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>7.43</v>
+        <v>10.77</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4124,22 +4124,22 @@
         <v>25</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>3124</v>
+        <v>4213</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>592</v>
+        <v>689</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>6.65</v>
+        <v>8.91</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4150,25 +4150,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>6791</v>
+        <v>8689</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>566</v>
+        <v>645</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>14.57</v>
+        <v>19.01</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4179,25 +4179,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>20225</v>
+        <v>5752</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>744</v>
+        <v>366</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>46.18</v>
+        <v>12.64</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4208,25 +4208,25 @@
         <v>132</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>3931</v>
+        <v>10215</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>8.97</v>
+        <v>23.59</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4240,22 +4240,22 @@
         <v>31</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>5435</v>
+        <v>8083</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>565</v>
+        <v>745</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>12.58</v>
+        <v>18.97</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4266,25 +4266,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>7334</v>
+        <v>12301</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>310</v>
+        <v>939</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>16.98</v>
+        <v>29.01</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4295,25 +4295,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>21011</v>
+        <v>10105</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>433</v>
+        <v>1200</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>49.09</v>
+        <v>23.95</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4324,25 +4324,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>7801</v>
+        <v>11718</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>1010</v>
+        <v>521</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>18.49</v>
+        <v>28.1</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4359,19 +4359,19 @@
         <v>414</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>5006</v>
+        <v>6512</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>622</v>
+        <v>766</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>12.09</v>
+        <v>15.73</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4382,25 +4382,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>15271</v>
+        <v>10325</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>933</v>
+        <v>383</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>37.43</v>
+        <v>25.24</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4411,25 +4411,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>9133</v>
+        <v>15197</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>316</v>
+        <v>1123</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>22.5</v>
+        <v>38.18</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4440,25 +4440,25 @@
         <v>140</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>378</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>6520</v>
+        <v>6007</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>16.3</v>
+        <v>15.4</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4469,25 +4469,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>17478</v>
+        <v>8261</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>764</v>
+        <v>898</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>44.93</v>
+        <v>21.46</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4501,22 +4501,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>8039</v>
+        <v>10288</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>534</v>
+        <v>693</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>21.9</v>
+        <v>27.81</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4530,22 +4530,22 @@
         <v>28</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>314</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>6772</v>
+        <v>9222</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>423</v>
+        <v>527</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>18.66</v>
+        <v>25.48</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4556,25 +4556,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>357</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>5759</v>
+        <v>7970</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>475</v>
+        <v>641</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>16.13</v>
+        <v>22.32</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4585,25 +4585,25 @@
         <v>145</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>18608</v>
+        <v>5902</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>533</v>
+        <v>625</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>56.73</v>
+        <v>18.27</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4614,22 +4614,22 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>3991</v>
+        <v>9667</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>12.55</v>
+        <v>30.3</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>104</v>
@@ -4643,25 +4643,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>289</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>4770</v>
+        <v>6210</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>783</v>
+        <v>1034</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>15.44</v>
+        <v>20.23</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4675,22 +4675,22 @@
         <v>28</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>5214</v>
+        <v>6683</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>17.86</v>
+        <v>23.29</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4701,25 +4701,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>5737</v>
+        <v>7805</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>399</v>
+        <v>510</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>20.49</v>
+        <v>27.97</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4733,22 +4733,22 @@
         <v>12</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>5337</v>
+        <v>6875</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>19.27</v>
+        <v>25.09</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4762,22 +4762,22 @@
         <v>28</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>5136</v>
+        <v>6854</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>20.3</v>
+        <v>26.67</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4791,22 +4791,22 @@
         <v>12</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>15596</v>
+        <v>7359</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>62.14</v>
+        <v>30.16</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4820,22 +4820,22 @@
         <v>22</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>10089</v>
+        <v>5482</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>48.98</v>
+        <v>26.87</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4846,25 +4846,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>177</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>4143</v>
+        <v>5880</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>21.47</v>
+        <v>30.95</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4878,22 +4878,22 @@
         <v>22</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>15901</v>
+        <v>5232</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>85.49</v>
+        <v>28.43</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4904,25 +4904,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>9345</v>
+        <v>7943</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>51.35</v>
+        <v>43.4</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4933,25 +4933,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>3134</v>
+        <v>4439</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>17.31</v>
+        <v>24.94</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4962,25 +4962,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>11027</v>
+        <v>5291</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>140</v>
+        <v>690</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>62.3</v>
+        <v>30.41</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4991,25 +4991,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D143" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>2876</v>
+      </c>
+      <c r="G143" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="E143" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="F143" s="0" t="n">
-        <v>3957</v>
-      </c>
-      <c r="G143" s="0" t="n">
-        <v>592</v>
-      </c>
       <c r="H143" s="0" t="n">
-        <v>22.74</v>
+        <v>16.72</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5023,22 +5023,22 @@
         <v>28</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>2217</v>
+        <v>2913</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>12.89</v>
+        <v>17.04</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5052,22 +5052,22 @@
         <v>12</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>140</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>6370</v>
+        <v>2861</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>38.84</v>
+        <v>17.66</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5081,22 +5081,22 @@
         <v>14</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>145</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>7336</v>
+        <v>5458</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>45.01</v>
+        <v>34.11</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5110,22 +5110,22 @@
         <v>22</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>129</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>7122</v>
+        <v>8375</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>45.08</v>
+        <v>53.69</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5139,22 +5139,22 @@
         <v>28</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>2691</v>
+        <v>3026</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>18.06</v>
+        <v>19.91</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5171,19 +5171,19 @@
         <v>147</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>3829</v>
+        <v>3527</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>26.05</v>
+        <v>23.99</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5194,25 +5194,25 @@
         <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>2944</v>
+        <v>2996</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>20.44</v>
+        <v>20.52</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5223,25 +5223,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>2006</v>
+        <v>4286</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>63</v>
+        <v>297</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>13.93</v>
+        <v>29.56</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5255,22 +5255,22 @@
         <v>28</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>2557</v>
+        <v>3490</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>18.4</v>
+        <v>24.93</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5284,22 +5284,22 @@
         <v>12</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>866</v>
+        <v>1239</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>6.51</v>
+        <v>9.25</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5310,25 +5310,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>117</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>3732</v>
+        <v>4535</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>29.16</v>
+        <v>35.71</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5345,19 +5345,19 @@
         <v>124</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1846</v>
+        <v>2694</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>14.89</v>
+        <v>21.73</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5371,22 +5371,22 @@
         <v>28</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>2112</v>
+        <v>2197</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>17.17</v>
+        <v>18.31</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5397,25 +5397,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E157" s="0" t="n">
         <v>108</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>6826</v>
+        <v>1911</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>55.5</v>
+        <v>16.06</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5426,25 +5426,25 @@
         <v>174</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>114</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>10731</v>
+        <v>7052</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>94.13</v>
+        <v>61.86</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5455,25 +5455,25 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>6677</v>
+        <v>7096</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>59.09</v>
+        <v>65.1</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5484,22 +5484,22 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>5150</v>
+        <v>3321</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>46.82</v>
+        <v>30.75</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>92</v>
@@ -5513,25 +5513,25 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1419</v>
+        <v>1759</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>13.02</v>
+        <v>16.29</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5545,22 +5545,22 @@
         <v>28</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>89</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1735</v>
+        <v>2327</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>16.52</v>
+        <v>21.95</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5580,16 +5580,16 @@
         <v>96</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1000</v>
+        <v>1368</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>10.31</v>
+        <v>14.1</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5600,7 +5600,7 @@
         <v>180</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>96</v>
@@ -5609,16 +5609,16 @@
         <v>82</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1934</v>
+        <v>2702</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>20.15</v>
+        <v>28.15</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5635,19 +5635,19 @@
         <v>92</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>2165</v>
+        <v>2375</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>23.53</v>
+        <v>25.82</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5661,22 +5661,22 @@
         <v>28</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1529</v>
+        <v>1943</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>17.38</v>
+        <v>21.83</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5690,22 +5690,22 @@
         <v>14</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E167" s="0" t="n">
         <v>75</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1406</v>
+        <v>2069</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>16.94</v>
+        <v>25.54</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5719,22 +5719,22 @@
         <v>28</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E168" s="0" t="n">
         <v>67</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>1000</v>
+        <v>1078</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>13.16</v>
+        <v>14.37</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5745,25 +5745,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E169" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>1691</v>
+      </c>
+      <c r="G169" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="F169" s="0" t="n">
-        <v>1282</v>
-      </c>
-      <c r="G169" s="0" t="n">
-        <v>55</v>
-      </c>
       <c r="H169" s="0" t="n">
-        <v>16.87</v>
+        <v>23.16</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5783,16 +5783,16 @@
         <v>57</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>1854</v>
+        <v>2500</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>28.09</v>
+        <v>37.88</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5803,25 +5803,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>996</v>
+        <v>1348</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>16.6</v>
+        <v>22.1</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5832,25 +5832,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>503</v>
+        <v>1339</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>8.53</v>
+        <v>22.32</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5861,25 +5861,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D173" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="I173" s="0" t="n">
         <v>58</v>
-      </c>
-      <c r="E173" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="F173" s="0" t="n">
-        <v>1126</v>
-      </c>
-      <c r="G173" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H173" s="0" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="I173" s="0" t="n">
-        <v>62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5890,22 +5890,22 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>802</v>
+        <v>570</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>14.32</v>
+        <v>9.83</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>55</v>
@@ -5919,25 +5919,25 @@
         <v>191</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>980</v>
+        <v>1122</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>17.82</v>
+        <v>19.68</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5948,7 +5948,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>54</v>
@@ -5957,16 +5957,16 @@
         <v>51</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>382</v>
+        <v>1258</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>7.07</v>
+        <v>23.3</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5977,25 +5977,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>45</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>9443</v>
+        <v>5829</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>185.16</v>
+        <v>118.96</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6006,25 +6006,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E178" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D178" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="E178" s="0" t="n">
-        <v>44</v>
-      </c>
       <c r="F178" s="0" t="n">
-        <v>633</v>
+        <v>1021</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>13.47</v>
+        <v>21.27</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6038,22 +6038,22 @@
         <v>28</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>1037</v>
+        <v>866</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>22.06</v>
+        <v>18.83</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6064,25 +6064,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>720</v>
+        <v>1023</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>15.32</v>
+        <v>22.24</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6099,19 +6099,19 @@
         <v>46</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>628</v>
+        <v>1481</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>13.65</v>
+        <v>32.2</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>56</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6122,25 +6122,25 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D182" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E182" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="E182" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="F182" s="0" t="n">
-        <v>728</v>
+        <v>873</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>16.55</v>
+        <v>18.98</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6151,25 +6151,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>35</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>14.78</v>
+        <v>16.03</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6180,25 +6180,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>409</v>
+        <v>877</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>11.05</v>
+        <v>23.08</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6218,16 +6218,16 @@
         <v>31</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>435</v>
+        <v>681</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>12.08</v>
+        <v>18.92</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6241,22 +6241,22 @@
         <v>14</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E186" s="0" t="n">
         <v>25</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>9374</v>
+        <v>472</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>292.94</v>
+        <v>15.73</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6267,7 +6267,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>30</v>
@@ -6276,16 +6276,16 @@
         <v>27</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>389</v>
+        <v>601</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>12.97</v>
+        <v>20.03</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6305,16 +6305,16 @@
         <v>26</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>13.24</v>
+        <v>17.14</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6328,22 +6328,22 @@
         <v>22</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>399</v>
+        <v>562</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>14.78</v>
+        <v>20.07</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6363,16 +6363,16 @@
         <v>27</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>411</v>
+        <v>570</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>15.22</v>
+        <v>21.11</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6383,7 +6383,7 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>27</v>
@@ -6392,16 +6392,16 @@
         <v>26</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>901</v>
+        <v>1246</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>33.37</v>
+        <v>46.15</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6421,16 +6421,16 @@
         <v>22</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>572</v>
+        <v>788</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>22</v>
+        <v>30.31</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6450,16 +6450,16 @@
         <v>24</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>12.24</v>
+        <v>15.84</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6479,16 +6479,16 @@
         <v>19</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6508,16 +6508,16 @@
         <v>13</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>6.41</v>
+        <v>9.91</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6528,25 +6528,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>9.38</v>
+        <v>16.62</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6557,7 +6557,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>21</v>
@@ -6566,16 +6566,16 @@
         <v>20</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>6.76</v>
+        <v>9.57</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6586,25 +6586,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>12.19</v>
+        <v>14.2</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6618,22 +6618,22 @@
         <v>28</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>11.86</v>
+        <v>17.74</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6644,25 +6644,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>12257</v>
+        <v>305</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>612.85</v>
+        <v>17.94</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6673,25 +6673,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>706</v>
+        <v>669</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>37.16</v>
+        <v>39.35</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6705,22 +6705,22 @@
         <v>28</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>8266</v>
+        <v>424</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>435.05</v>
+        <v>26.5</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6731,25 +6731,25 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>234</v>
+        <v>4159</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>13.76</v>
+        <v>277.27</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6760,25 +6760,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>30.44</v>
+        <v>29.4</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6789,25 +6789,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E205" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>19.87</v>
+        <v>19.31</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6818,25 +6818,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E206" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>2795</v>
+        <v>101</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>199.64</v>
+        <v>8.42</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6847,25 +6847,25 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>150</v>
+        <v>423</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>11.54</v>
+        <v>35.25</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6876,25 +6876,25 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c r="G208" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="I208" s="0" t="n">
         <v>28</v>
-      </c>
-      <c r="H208" s="0" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I208" s="0" t="n">
-        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6905,7 +6905,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>12</v>
@@ -6914,16 +6914,16 @@
         <v>12</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>5.67</v>
+        <v>31.5</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6943,16 +6943,16 @@
         <v>9</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>10.33</v>
+        <v>18.11</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6972,16 +6972,16 @@
         <v>9</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>12.67</v>
+        <v>15.56</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6992,25 +6992,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>109</v>
+        <v>307</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>13.63</v>
+        <v>38.38</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7027,19 +7027,19 @@
         <v>8</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>25.13</v>
+        <v>7.25</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7050,25 +7050,25 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>5.43</v>
+        <v>13.29</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7088,13 +7088,13 @@
         <v>7</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>14.14</v>
+        <v>16.71</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>39</v>
@@ -7114,19 +7114,19 @@
         <v>7</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>6.14</v>
+        <v>8.14</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7137,25 +7137,25 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>9.71</v>
+        <v>9.67</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7166,7 +7166,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>6</v>
@@ -7175,16 +7175,16 @@
         <v>6</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>7.5</v>
+        <v>23.33</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7195,7 +7195,7 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>5</v>
@@ -7204,16 +7204,16 @@
         <v>3</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7233,16 +7233,16 @@
         <v>3</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>43.25</v>
+        <v>59.5</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7253,7 +7253,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>4</v>
@@ -7262,16 +7262,16 @@
         <v>4</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7282,7 +7282,7 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>4</v>
@@ -7291,16 +7291,16 @@
         <v>4</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>15.75</v>
+        <v>19.75</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7320,16 +7320,16 @@
         <v>3</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>8.67</v>
+        <v>12.67</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7340,7 +7340,7 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>3</v>
@@ -7349,16 +7349,16 @@
         <v>3</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>4</v>
+        <v>6.67</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7369,25 +7369,25 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7407,16 +7407,16 @@
         <v>2</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7427,25 +7427,25 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7456,13 +7456,13 @@
         <v>244</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E228" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228" s="0" t="n">
         <v>2</v>
@@ -7474,7 +7474,7 @@
         <v>2</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7485,7 +7485,7 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>1</v>
@@ -7494,16 +7494,16 @@
         <v>0</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7514,25 +7514,25 @@
         <v>246</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E230" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7552,16 +7552,16 @@
         <v>1</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7572,7 +7572,7 @@
         <v>248</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>1</v>
@@ -7581,16 +7581,16 @@
         <v>1</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G232" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H232" s="0" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
